--- a/public/deals.xlsx
+++ b/public/deals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D5C8FF-66B6-4959-B5A5-D9FCB48587C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29FE83-C789-48B3-BF69-5B6289607092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="17280" windowHeight="9983" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
   <si>
     <t>KEY</t>
   </si>
@@ -36,9 +36,6 @@
     <t>BIG_TITLE</t>
   </si>
   <si>
-    <t>CHIẾN DỊCH 9.9 – ƯU ĐÃI TOÀN SÀN</t>
-  </si>
-  <si>
     <t>Hình ảnh</t>
   </si>
   <si>
@@ -51,32 +48,292 @@
     <t>Khuyến mãi</t>
   </si>
   <si>
-    <t>https://via.placeholder.com/300x200.png?text=SP1</t>
-  </si>
-  <si>
-    <t>Sản phẩm A</t>
-  </si>
-  <si>
-    <t>Mua 2 tặng 1</t>
-  </si>
-  <si>
-    <t>https://via.placeholder.com/300x200.png?text=SP2</t>
-  </si>
-  <si>
-    <t>Sản phẩm B</t>
-  </si>
-  <si>
-    <t>Deal sốc -50%</t>
+    <t>Bước qua năm số 9 - ƯU ĐÃI SẬP GIAN HÀNG 15.9</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdzv2rddy58iad.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdzv04d1ay2v0a.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mei1k9q7d7us5e.webp</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 LẠP XƯỞNG VỊT 500g] Combo 1 hộp Gà Tiềm Thuốc Bắc + 1 hộp Riêu Cua Đồng Dannygreen 350g</t>
+  </si>
+  <si>
+    <t>Tặng 1 hộp cá he vị ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdzui35803yf10.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdzuuo6csy6c7e.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-megv7gip2sxz44.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdotyob8qmkl59.webp</t>
+  </si>
+  <si>
+    <t>Gạo Lài Cam Bốt DannyGreen Hương Thơm Tự Nhiên 1kg</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-md5wmja5dprhe4.webp</t>
+  </si>
+  <si>
+    <t>Giảm 30%</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdtufp8ytrjl8e.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tặng 1 hộp Lạp xưởng vị tiêu lốt hoặc tiêu đen 500g (nửa kí) </t>
+  </si>
+  <si>
+    <t>Giảm 30% - Tặng 1 Gạo Lài Cam Bốt DNG 1Kg</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdtuf6y9kaep7a.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-megtv0t0nf2c5f.webp</t>
+  </si>
+  <si>
+    <t>Tặng 1 hộp Lạp xưởng vị tiêu lốt hoặc tiêu đen 500g (nửa kí) - Gói trà đàn hương 10g</t>
+  </si>
+  <si>
+    <t>Tặng 1 Hộp Nước Cốt Kỷ Tử Nguyên Chất Qifuyuan - Gói trà đàn hương 10g</t>
+  </si>
+  <si>
+    <t>Bánh Trung Thu Trứng Muối Thảo Dược DannyGreen Thượng Hạng 120g (Mặn)</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdttumen7zu7de.webp</t>
+  </si>
+  <si>
+    <t>Bắp Saffron, Ổi hồng xá lị, Cốm dừa, Thập cẩm tôm sốt hạt dổi, Dừa cà phê, Olong kỷ tử táo đỏ, Dẻo nhân bí hạt đậu phô mai, Thập cẩm lạp xưởng gà ác quay - Gói trà đàn hương 10g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] MUA 1 Gói (100G) Trà Đàn Hương Thượng Hạng Hữu Cơ Organic TẶNG 1 Bánh Trung Thu Thảo Dược (ngẫu nhiên)</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdouzqrzwrldfe.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tặng 1 Bánh trung thu cao cấp vị ngẫu nhiên </t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] MUA 1 Gói (500G) Trà Hoa Sâm Bố Chính Hữu Cơ Organic TẶNG 1 Bánh Trung Thu Thảo Dược (Ngẫu nhiên)</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdouinbclqr539.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdov8kmwrhdx9b.webp</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] MUA 1 Gói (350g) Trà Hoa Hòe Nguyên Nụ Sấy Khô Tự nhiên TẶNG 1 Bánh Trung Thu Thảo Dược (Ngẫu nhiên)</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdovldm27w7985.webp</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] MUA 1 Gói (160g) Trà Hoa Đu Đủ Đực Sấy Khô TẶNG 1 Bánh Trung Thu Thảo Dược (Ngẫu nhiên)</t>
+  </si>
+  <si>
+    <t>[GIẢM 50%] Thùng 24 Lon Nước Dưa Lưới Hữu Cơ Vị Nguyên Bản DannyGreen</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrtg7lr8mgh99.webp</t>
+  </si>
+  <si>
+    <t>Giảm 50%</t>
+  </si>
+  <si>
+    <t>[GIẢM 50%] Thùng 24 Lon Nước Dưa Lưới Nguyên Chất Có Gaz Vị Nguyên Bản DannyGreen</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrss16kzub3fd.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrsdfsduje47f.webp</t>
+  </si>
+  <si>
+    <t>[GIẢM 50%] Thùng 24 Lon Nước Ép Từ Dứa Tươi Nguyên Chất DannyGreen</t>
+  </si>
+  <si>
+    <t>[Giảm 50%] Thùng 24 Lon Nước Ép Dứa Có Thịt Dứa Thật DannyGreen Lon 250ml</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrte91khx9o2e.webp</t>
+  </si>
+  <si>
+    <t>[GIẢM 50%] Thùng 24 Lon Nước Có Gaz Vị Ổi Hồng Tự Nhiên DannyGreen 330ml</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrsp62dw90s07.webp</t>
+  </si>
+  <si>
+    <t>[Giảm 50%] Thùng 24 Lon Nước Trà Chanh Thanh Nhiệt DannyGreen Lon 320ml</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrt8g428p0xbf.webp</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Sầu riêng Ri6 Hữu Cơ Chín Tự Nhiên DannyGreen 1.8 – 2.2Kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Sầu Riêng Monthong DannyGreen 2.5 - 3kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Sầu Riêng Monthong DannyGreen 3 - 3.5kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Dưa Lưới Hữu Cơ Biển Hằng Nga DannyGreen 2.1 - 2.4Kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Dưa Lưới Hữu Cơ Biển Ngọc Bích DannyGreen 1.6 - 1.9Kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1]Dưa Lê Hữu Cơ Hồng Kim DannyGreen 1.3 - 1.5Kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Thanh Nhãn Hữu Cơ DannyGreen 500g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Đậu Bắp Hữu Cơ DannyGreen 500g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Muống Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Cải Rổ Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Cải Bẹ Dún Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Cải Ngồng Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Cải Mèo Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Rau Cải Bó Xôi Hữu Cơ DannyGreen | Túi 300g</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-meguou8xczk39c.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mejv9e6k7nr462.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1lhqhwmmm9c3.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1oph3jru2p1c.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1p7xu10iro70.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-meb5713wbh8l94.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me9r2kc4qr5wdb.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvksvcsqcxu54.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvksbvunapwd4.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvkwuwi639fb8.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvku44asp348e.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvkyyz73mkmc8.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvkvokxfr460b.webp</t>
+  </si>
+  <si>
+    <t>Giảm 10% - Tặng 1 hộp cá he vị ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>Dưa Lưới Hữu Cơ DannyGreen Sấy Mộc 105g</t>
+  </si>
+  <si>
+    <t>Nước Cốt Kỷ Tử Nguyên Chất Qifuyuan 8 chai (50ml/chai)</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 LẠP XƯỞNG VỊT 500g] Combo 2 Hộp Gà Ác Tiềm Thuốc Bắc Nguyên Con DannyGreen Hộp 400g</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 LẠP XƯỞNG VỊT 500g] MUA 1KG Bắp Nếp Cổ Truyền Bung Nguyên Hạt DannyGreen TẶNG 1 HỘP Lạp Xưởng Vịt (ngẫu nhiên) 500g</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 GẠO LÀI CAM BỐT 1Kg] MUA 1KG Nếp Gà Con TẶNG 1KG Gạo Lài Cambot Nhập Khẩu</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 HỘP CÁ HE 400g] Lạp Xưởng Vịt Vị Tiêu Đen DannyGreen Túi 500g</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 HỘP CÁ HE 400g] Lạp Xưởng Vịt Vị Tiêu Lốt DannyGreen Túi 500g</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 HỘP CÁ HE 400g] Combo 2 Hộp Riêu Cua Đồng DannyGreen Hộp 350g</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 LẠP XƯỞNG VỊT 500g] Combo 2 Bánh Trung Thu Thảo Dược Thượng Hạng (120g/cái)</t>
+  </si>
+  <si>
+    <t>MUA 1 Set Viên Dạ TẶNG 1 HỘP 8 Lọ 50ml Nước Cốt Kỷ Tử Nguyên Chất Qifuyuan</t>
+  </si>
+  <si>
+    <t>MUA 1 Set Trà Tụ TẶNG 1 HỘP 8 Lọ 50ml Nước Cốt Kỷ Tử Nguyên Chất Qifuyuan</t>
+  </si>
+  <si>
+    <t>Bánh Trung Thu Thảo Dược Chay Thượng Hạng DannyGreen 120g</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdtu5l63jb8se6.webp</t>
+  </si>
+  <si>
+    <t>Bắp Kỷ Tử, Bắp Xào Dừa, Thập Cẩm Đông Trùng Hạ Thảo Kỷ Tử, Thập Cẩm Táo Đỏ Kỷ Tử Ngũ Hạt - Gói trà đàn hương 10g</t>
+  </si>
+  <si>
+    <t>Giảm giá 20%</t>
+  </si>
+  <si>
+    <t>Giảm giá 10%</t>
+  </si>
+  <si>
+    <t>Giảm giá 10%, Mua 1 tặng 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +356,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -430,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -440,24 +704,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -465,27 +737,41 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>99000</v>
+        <v>252000</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>310000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>199000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>279000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -495,52 +781,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="70.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>99000</v>
+        <v>193500</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C3">
-        <v>199000</v>
+        <v>193500</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>320000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>49000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>38500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>88500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>264500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -550,52 +908,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>99000</v>
+        <v>1620000</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>199000</v>
+        <v>1080000</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>351000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>179100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>179100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>641000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>265000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>294000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>133000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -605,52 +1069,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="41.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>99000</v>
+        <v>219000</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>199000</v>
+        <v>192500</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>240000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>241500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>219000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>219000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -660,55 +1188,236 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>99000</v>
+        <v>212000</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>199000</v>
+        <v>318400</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>371200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>212000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>189000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>162000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>79200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>45900</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>40500</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>40500</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>40500</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>40500</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>40500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>40500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{CF5E199F-6573-45D0-A901-1B004A9931EB}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{AA693A9B-70A8-4979-95E3-A2CE32771E61}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A5F18D29-5075-420B-A367-6017278A9127}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/deals.xlsx
+++ b/public/deals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29FE83-C789-48B3-BF69-5B6289607092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB382D21-704F-4D7E-8DE6-6D8870747A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2085" windowWidth="17280" windowHeight="9982" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>KEY</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Giảm giá 10%, Mua 1 tặng 1</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-m48hkz8f0dioe3@resize_w900_nl.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-md5j9z2a5nz086.webp</t>
   </si>
 </sst>
 </file>
@@ -360,12 +366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -783,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -880,6 +885,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -891,6 +899,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -974,7 +985,7 @@
       <c r="C4">
         <v>351000</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1016,7 +1027,7 @@
       <c r="C7">
         <v>641000</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1030,7 +1041,7 @@
       <c r="C8">
         <v>265000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1044,7 +1055,7 @@
       <c r="C9">
         <v>294000</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1058,7 +1069,7 @@
       <c r="C10">
         <v>133000</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1190,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1259,7 +1270,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
@@ -1273,7 +1284,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
@@ -1287,7 +1298,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B7" t="s">

--- a/public/deals.xlsx
+++ b/public/deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB382D21-704F-4D7E-8DE6-6D8870747A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFAD2E-A378-4478-ACDB-052ECEACF633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="2085" windowWidth="17280" windowHeight="9982" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-m48hkz8f0dioe3@resize_w900_nl.webp</t>
   </si>
   <si>
-    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-md5j9z2a5nz086.webp</t>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdrsahanq4z093@resize_w900_nl.webp</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
